--- a/Result/checksun/塑膠工業.xlsx
+++ b/Result/checksun/塑膠工業.xlsx
@@ -11631,7 +11631,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11821,7 +11825,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12011,7 +12019,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12209,7 +12221,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12407,7 +12423,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12605,7 +12625,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12803,7 +12827,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13001,7 +13029,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13199,7 +13231,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13397,7 +13433,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13595,7 +13635,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="AV67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">

--- a/Result/checksun/塑膠工業.xlsx
+++ b/Result/checksun/塑膠工業.xlsx
@@ -722,10 +722,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2474,16 +2474,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3127,16 +3127,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3568,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3784,16 +3784,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4006,13 +4006,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4222,13 +4222,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -4444,17 +4444,17 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4663,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4879,20 +4879,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5535,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -5755,20 +5755,20 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6193,20 +6193,20 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B27" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-17</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -6412,16 +6412,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B28" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6631,20 +6631,20 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -6853,13 +6853,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -7072,13 +7072,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7291,17 +7291,17 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -8155,13 +8155,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8369,16 +8369,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8589,17 +8589,17 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -8803,13 +8803,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -9020,20 +9020,20 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -9237,20 +9237,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9454,16 +9454,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -9671,20 +9671,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10318,16 +10318,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B46" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -10537,16 +10537,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10756,20 +10756,20 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -10975,20 +10975,20 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -11194,20 +11194,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C50" t="n">
         <v>1</v>
       </c>
-      <c r="B50" t="n">
-        <v>16</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6</v>
-      </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -11413,16 +11413,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11632,20 +11632,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>-4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11851,20 +11851,20 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12070,20 +12070,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12723,20 +12723,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -12942,16 +12942,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B58" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13161,16 +13161,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13383,13 +13383,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13602,17 +13602,17 @@
         <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C61" t="n">
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13821,13 +13821,13 @@
         <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -14037,20 +14037,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>-5</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14259,17 +14259,17 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -14475,20 +14475,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15128,20 +15128,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15349,16 +15349,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15566,20 +15566,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15783,16 +15783,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16000,16 +16000,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B72" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16217,16 +16217,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -16434,20 +16434,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="B74" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16651,20 +16651,20 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16868,20 +16868,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -17515,20 +17515,20 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -17736,20 +17736,20 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -17953,16 +17953,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B81" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18173,17 +18173,17 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>-18</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -18387,20 +18387,20 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C83" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -18604,16 +18604,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -18821,20 +18821,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C85" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19041,17 +19041,17 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19255,20 +19255,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -19902,20 +19902,20 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B90" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -20119,16 +20119,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B91" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20336,16 +20336,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B92" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C92" t="n">
         <v>-2</v>
       </c>
       <c r="D92" t="n">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20553,20 +20553,20 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C93" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D93" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -20770,20 +20770,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D94" t="n">
-        <v>-23</v>
+        <v>1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -20987,13 +20987,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B95" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -21204,20 +21204,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>93</v>
+        <v>-25</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21424,17 +21424,17 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -21638,20 +21638,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22288,17 +22288,17 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -22502,13 +22502,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -22936,13 +22936,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -23156,13 +23156,13 @@
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -23370,20 +23370,20 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>-1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23587,20 +23587,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23804,20 +23804,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24021,20 +24021,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24668,20 +24668,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-2</v>
+        <v>-36</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
         <v>-1</v>
       </c>
       <c r="D113" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25105,10 +25105,10 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C114" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>-1</v>
@@ -25319,20 +25319,20 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -25539,10 +25539,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
@@ -25753,20 +25753,20 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>-6</v>
+        <v>-34</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -25970,20 +25970,20 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>51</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
         <v>-1</v>
       </c>
-      <c r="B118" t="n">
-        <v>69</v>
-      </c>
-      <c r="C118" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>69</v>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26190,17 +26190,17 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26404,20 +26404,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27051,20 +27051,20 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -27273,13 +27273,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -27492,17 +27492,17 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -27708,16 +27708,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -27927,20 +27927,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -28146,10 +28146,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C128" t="n">
         <v>2</v>
@@ -28365,20 +28365,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C129" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28587,17 +28587,17 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -28803,20 +28803,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29459,13 +29459,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -29676,17 +29676,17 @@
         <v>-1</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C135" t="n">
         <v>-1</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -29893,13 +29893,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -30110,17 +30110,17 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -30327,10 +30327,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D138" t="n">
         <v>-1</v>
@@ -30541,16 +30541,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -30758,20 +30758,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -30978,17 +30978,17 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31192,20 +31192,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -31842,17 +31842,17 @@
         <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -32061,13 +32061,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -32278,17 +32278,17 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -32497,17 +32497,17 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -32716,13 +32716,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33154,17 +33154,17 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33371,17 +33371,17 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33587,20 +33587,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34243,17 +34243,17 @@
         <v>5</v>
       </c>
       <c r="B156" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -34469,16 +34469,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B157" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C157" t="n">
         <v>-1</v>
       </c>
       <c r="D157" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -34694,16 +34694,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B158" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -34911,16 +34911,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C159" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D159" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35131,17 +35131,17 @@
         <v>3</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -35345,13 +35345,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B161" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -35562,20 +35562,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B162" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>40</v>
+        <v>-2</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -35782,17 +35782,17 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -35996,20 +35996,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36643,20 +36643,20 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B167" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -36867,13 +36867,13 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37084,13 +37084,13 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37298,16 +37298,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B170" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C170" t="n">
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37515,16 +37515,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D171" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -37732,16 +37732,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -37949,20 +37949,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C173" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>37</v>
+        <v>-3</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38169,17 +38169,17 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -38383,20 +38383,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39030,20 +39030,20 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B178" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -39247,16 +39247,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -39464,13 +39464,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B180" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D180" t="n">
         <v>-2</v>
@@ -39684,13 +39684,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C181" t="n">
         <v>-2</v>
       </c>
       <c r="D181" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -39901,13 +39901,13 @@
         <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -40115,20 +40115,20 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -40332,20 +40332,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C184" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>41</v>
+        <v>-8</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40549,16 +40549,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -40766,20 +40766,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41413,20 +41413,20 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B189" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -41637,13 +41637,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -41851,20 +41851,20 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B191" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -42068,20 +42068,20 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B192" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -42288,17 +42288,17 @@
         <v>1</v>
       </c>
       <c r="B193" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D193" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -42502,16 +42502,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B194" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -42719,20 +42719,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B195" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C195" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>64</v>
+        <v>-14</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -42936,20 +42936,20 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -43153,20 +43153,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -43800,20 +43800,20 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -44020,13 +44020,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44237,13 +44237,13 @@
         <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44451,16 +44451,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B203" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="n">
         <v>-1</v>
       </c>
       <c r="D203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -44668,13 +44668,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D204" t="n">
         <v>-1</v>
@@ -44888,13 +44888,13 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -45102,20 +45102,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
+        <v>0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
         <v>-1</v>
       </c>
-      <c r="B206" t="n">
-        <v>10</v>
-      </c>
-      <c r="C206" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>10</v>
-      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45322,17 +45322,17 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -45536,20 +45536,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46183,16 +46183,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B211" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -46403,13 +46403,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -46617,16 +46617,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B213" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -46834,16 +46834,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B214" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C214" t="n">
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -47051,16 +47051,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D215" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -47268,20 +47268,20 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B216" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>-3</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -47485,20 +47485,20 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B217" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C217" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>38</v>
+        <v>-5</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -47705,17 +47705,17 @@
         <v>0</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -47919,20 +47919,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -48590,10 +48590,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B222" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -48821,16 +48821,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B223" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -49051,13 +49051,13 @@
         <v>1</v>
       </c>
       <c r="B224" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -49275,20 +49275,20 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B225" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -49505,10 +49505,10 @@
         <v>0</v>
       </c>
       <c r="B226" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -49721,20 +49721,20 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D227" t="n">
         <v>-2</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -49940,20 +49940,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -50162,17 +50162,17 @@
         <v>0</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -50378,20 +50378,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -51031,20 +51031,20 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B233" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -51251,17 +51251,17 @@
         <v>0</v>
       </c>
       <c r="B234" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C234" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -51465,20 +51465,20 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B235" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -51682,20 +51682,20 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B236" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D236" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -51899,20 +51899,20 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B237" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D237" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -52116,20 +52116,20 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B238" t="n">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -52333,20 +52333,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
+        <v>0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>56</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" t="n">
         <v>-1</v>
       </c>
-      <c r="B239" t="n">
-        <v>92</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>92</v>
-      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -52550,20 +52550,20 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -52767,20 +52767,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -53414,20 +53414,20 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
+        <v>4</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+      <c r="D244" t="n">
         <v>1</v>
       </c>
-      <c r="B244" t="n">
-        <v>21</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>-3</v>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -53631,10 +53631,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B245" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -53848,16 +53848,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B246" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C246" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -54065,16 +54065,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B247" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D247" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -54282,20 +54282,20 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B248" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D248" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -54499,16 +54499,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B249" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -54716,20 +54716,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B250" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C250" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>46</v>
+        <v>-14</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -54936,17 +54936,17 @@
         <v>0</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -55150,20 +55150,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -55797,20 +55797,20 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B255" t="n">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D255" t="n">
-        <v>-57</v>
+        <v>-11</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -56019,17 +56019,17 @@
         <v>1</v>
       </c>
       <c r="B256" t="n">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D256" t="n">
-        <v>-43</v>
+        <v>-22</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -56235,16 +56235,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B257" t="n">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D257" t="n">
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -56454,20 +56454,20 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B258" t="n">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="C258" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D258" t="n">
-        <v>-37</v>
+        <v>-26</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>價跌量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -56673,16 +56673,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B259" t="n">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="C259" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D259" t="n">
-        <v>-63</v>
+        <v>-30</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -56892,20 +56892,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
+        <v>5</v>
+      </c>
+      <c r="B260" t="n">
+        <v>202</v>
+      </c>
+      <c r="C260" t="n">
         <v>2</v>
       </c>
-      <c r="B260" t="n">
-        <v>370</v>
-      </c>
-      <c r="C260" t="n">
-        <v>4</v>
-      </c>
       <c r="D260" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57111,20 +57111,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B261" t="n">
-        <v>316</v>
+        <v>191</v>
       </c>
       <c r="C261" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>316</v>
+        <v>-43</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57330,20 +57330,20 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -57549,20 +57549,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -58205,17 +58205,17 @@
         <v>0</v>
       </c>
       <c r="B266" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C266" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
@@ -58419,20 +58419,20 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D267" t="n">
-        <v>-31</v>
+        <v>-2</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
@@ -58636,20 +58636,20 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B268" t="n">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C268" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
@@ -58853,20 +58853,20 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B269" t="n">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C269" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>128</v>
+        <v>-38</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
@@ -59070,20 +59070,20 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -59287,20 +59287,20 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
